--- a/PAA/solvation_energies.xlsx
+++ b/PAA/solvation_energies.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>units</t>
   </si>
@@ -52,15 +52,6 @@
   </si>
   <si>
     <t>per unit difference</t>
-  </si>
-  <si>
-    <t>To do</t>
-  </si>
-  <si>
-    <t>R^2</t>
-  </si>
-  <si>
-    <t>Compare delta G per unit</t>
   </si>
   <si>
     <t>average</t>
@@ -450,11 +441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647482576"/>
-        <c:axId val="-1647498896"/>
+        <c:axId val="-1931467568"/>
+        <c:axId val="-2076144400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1647482576"/>
+        <c:axId val="-1931467568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,12 +522,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647498896"/>
+        <c:crossAx val="-2076144400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1647498896"/>
+        <c:axId val="-2076144400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647482576"/>
+        <c:crossAx val="-1931467568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -812,11 +803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647497808"/>
-        <c:axId val="-1647498352"/>
+        <c:axId val="-1274448000"/>
+        <c:axId val="-1274446912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1647497808"/>
+        <c:axId val="-1274448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,12 +884,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647498352"/>
+        <c:crossAx val="-1274446912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1647498352"/>
+        <c:axId val="-1274446912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647497808"/>
+        <c:crossAx val="-1274448000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1174,11 +1165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647501616"/>
-        <c:axId val="-1647501072"/>
+        <c:axId val="-1274443104"/>
+        <c:axId val="-1274446368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1647501616"/>
+        <c:axId val="-1274443104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,12 +1246,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647501072"/>
+        <c:crossAx val="-1274446368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1647501072"/>
+        <c:axId val="-1274446368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647501616"/>
+        <c:crossAx val="-1274443104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1535,11 +1526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647484752"/>
-        <c:axId val="-1647490192"/>
+        <c:axId val="-1274440928"/>
+        <c:axId val="-1274452896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1647484752"/>
+        <c:axId val="-1274440928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,12 +1607,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647490192"/>
+        <c:crossAx val="-1274452896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1647490192"/>
+        <c:axId val="-1274452896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647484752"/>
+        <c:crossAx val="-1274440928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1897,11 +1888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647483120"/>
-        <c:axId val="-1647511952"/>
+        <c:axId val="-1274435488"/>
+        <c:axId val="-1274451264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1647483120"/>
+        <c:axId val="-1274435488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,12 +1969,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647511952"/>
+        <c:crossAx val="-1274451264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1647511952"/>
+        <c:axId val="-1274451264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647483120"/>
+        <c:crossAx val="-1274435488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2259,11 +2250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647523376"/>
-        <c:axId val="-1647535888"/>
+        <c:axId val="-1274452352"/>
+        <c:axId val="-1274443648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1647523376"/>
+        <c:axId val="-1274452352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,12 +2331,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647535888"/>
+        <c:crossAx val="-1274443648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1647535888"/>
+        <c:axId val="-1274443648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +2413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647523376"/>
+        <c:crossAx val="-1274452352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2481,7 +2472,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-GB" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2492,6 +2483,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2534,6 +2526,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2625,11 +2618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1647541872"/>
-        <c:axId val="-1649994336"/>
+        <c:axId val="-1274449632"/>
+        <c:axId val="-1274445824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1647541872"/>
+        <c:axId val="-1274449632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2663,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1400" b="0">
+                  <a:rPr lang="en-GB" sz="1400" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2681,6 +2674,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2705,12 +2699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1649994336"/>
+        <c:crossAx val="-1274445824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1649994336"/>
+        <c:axId val="-1274445824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2745,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1400" b="0">
+                  <a:rPr lang="en-GB" sz="1400" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2762,6 +2756,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2786,13 +2781,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647541872"/>
+        <c:crossAx val="-1274449632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3344,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q1:X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3493,12 +3489,8 @@
         <v>-2465.3925714285715</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="N5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1">
       <c r="A6" s="3">
@@ -3527,9 +3519,7 @@
         <v>-2277.29225</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="O6" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1">
       <c r="A7" s="3">
@@ -3589,7 +3579,7 @@
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:G9" si="4">AVERAGE(E2:E8)</f>
@@ -3607,7 +3597,7 @@
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:G10" si="5">STDEV(E2:E8)</f>
@@ -3625,7 +3615,7 @@
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ref="E11:G11" si="6">E10/E9*100</f>
@@ -6621,7 +6611,9 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -6694,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6773,7 +6765,9 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -7088,40 +7082,40 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>-487.61355952380956</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>-2962.6818292517005</v>
@@ -7129,7 +7123,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6">
         <f>-45/7*4.184</f>
@@ -7138,7 +7132,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7169,40 +7163,40 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>-487.61355952380956</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>-2962.6818292517005</v>
@@ -7210,7 +7204,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6">
         <v>-2.0920000000000001</v>
@@ -7218,7 +7212,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7244,85 +7238,85 @@
     <col min="1" max="1" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14.4">
+      <c r="A5" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>-487.61355952380956</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6">
         <f>1045</f>
         <v>1045</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>-2962.6818292517005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <f>F5/9</f>
         <v>116.11111111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="14.4">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6">
         <f>-1060/9</f>
         <v>-117.77777777777777</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="14.4">
       <c r="A10" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4">
       <c r="A13" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7356,13 +7350,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" s="6">
         <v>2</v>
@@ -7373,10 +7367,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
@@ -7387,16 +7381,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>-487.61355952380956</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6">
         <v>4</v>
@@ -7407,7 +7401,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>-2962.6818292517005</v>
@@ -7421,7 +7415,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6">
         <v>-1.35</v>
@@ -7467,7 +7461,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
